--- a/op.xlsx
+++ b/op.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvinerkar/Desktop/fair-rent-division/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E0D098-9686-8645-BF01-4BD8E05A1ADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF88DDF-55A6-B844-9321-C9DCA3EF6C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20780" windowHeight="21000" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72871B11-6182-3F4C-B346-E5046090B4EE}">
-  <dimension ref="C2:J30"/>
+  <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -913,6 +913,141 @@
         <v>124</v>
       </c>
     </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1000</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>900.33</v>
+      </c>
+      <c r="I32">
+        <v>82.33</v>
+      </c>
+      <c r="J32">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>385</v>
+      </c>
+      <c r="E33">
+        <v>340</v>
+      </c>
+      <c r="F33">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>712</v>
+      </c>
+      <c r="E34">
+        <v>182</v>
+      </c>
+      <c r="F34">
+        <v>106</v>
+      </c>
+      <c r="H34">
+        <v>847.67</v>
+      </c>
+      <c r="I34">
+        <v>122.67</v>
+      </c>
+      <c r="J34">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="13">
+        <f>D32-H32</f>
+        <v>99.669999999999959</v>
+      </c>
+      <c r="E36">
+        <f>E32-I32</f>
+        <v>-82.33</v>
+      </c>
+      <c r="F36">
+        <f>F32-J32</f>
+        <v>-17.329999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>D33-H32</f>
+        <v>-515.33000000000004</v>
+      </c>
+      <c r="E37">
+        <f>E33-I32</f>
+        <v>257.67</v>
+      </c>
+      <c r="F37" s="13">
+        <f>F33-J32</f>
+        <v>257.67</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>D34-H32</f>
+        <v>-188.33000000000004</v>
+      </c>
+      <c r="E38" s="13">
+        <f>E34-I32</f>
+        <v>99.67</v>
+      </c>
+      <c r="F38">
+        <f>F34-J32</f>
+        <v>88.67</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="13">
+        <f>D32-H34</f>
+        <v>152.33000000000004</v>
+      </c>
+      <c r="E40">
+        <f>E32-I34</f>
+        <v>-122.67</v>
+      </c>
+      <c r="F40">
+        <f>F32-J34</f>
+        <v>-29.67</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>D33-H34</f>
+        <v>-462.66999999999996</v>
+      </c>
+      <c r="E41">
+        <f>E33-I34</f>
+        <v>217.32999999999998</v>
+      </c>
+      <c r="F41" s="13">
+        <f>F33-J34</f>
+        <v>245.32999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>H34</f>
+        <v>847.67</v>
+      </c>
+      <c r="E42" s="13">
+        <f>I34</f>
+        <v>122.67</v>
+      </c>
+      <c r="F42">
+        <f>F34-J34</f>
+        <v>76.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/op.xlsx
+++ b/op.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvinerkar/Desktop/fair-rent-division/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF88DDF-55A6-B844-9321-C9DCA3EF6C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220B3AF-63AE-5346-9BF9-DD337FAEFA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -566,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72871B11-6182-3F4C-B346-E5046090B4EE}">
   <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="125" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -1051,4 +1052,275 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10F7E83-6F49-7646-8667-341F80E65655}">
+  <dimension ref="B4:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>241</v>
+      </c>
+      <c r="C4">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <v>232</v>
+      </c>
+      <c r="E4">
+        <v>245</v>
+      </c>
+      <c r="G4">
+        <v>175.5</v>
+      </c>
+      <c r="H4">
+        <v>207.5</v>
+      </c>
+      <c r="I4">
+        <v>254.5</v>
+      </c>
+      <c r="J4">
+        <v>362.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>128</v>
+      </c>
+      <c r="D5">
+        <v>315</v>
+      </c>
+      <c r="E5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>248</v>
+      </c>
+      <c r="C6">
+        <v>175</v>
+      </c>
+      <c r="D6">
+        <v>329</v>
+      </c>
+      <c r="E6">
+        <v>248</v>
+      </c>
+      <c r="G6">
+        <v>207.75</v>
+      </c>
+      <c r="H6">
+        <v>196.75</v>
+      </c>
+      <c r="I6">
+        <v>243.75</v>
+      </c>
+      <c r="J6">
+        <v>351.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>293</v>
+      </c>
+      <c r="C7">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>372</v>
+      </c>
+      <c r="E7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B4-G4</f>
+        <v>65.5</v>
+      </c>
+      <c r="C9" s="12">
+        <f>C4-H4</f>
+        <v>74.5</v>
+      </c>
+      <c r="D9">
+        <f>D4-I4</f>
+        <v>-22.5</v>
+      </c>
+      <c r="E9">
+        <f>E4-J4</f>
+        <v>-117.5</v>
+      </c>
+      <c r="F9">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>B5-G4</f>
+        <v>-55.5</v>
+      </c>
+      <c r="C10">
+        <f>C5-H4</f>
+        <v>-79.5</v>
+      </c>
+      <c r="D10">
+        <f>D5-I4</f>
+        <v>60.5</v>
+      </c>
+      <c r="E10" s="12">
+        <f>E5-J4</f>
+        <v>74.5</v>
+      </c>
+      <c r="F10">
+        <f>SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>B6-G4</f>
+        <v>72.5</v>
+      </c>
+      <c r="C11">
+        <f>C6-H4</f>
+        <v>-32.5</v>
+      </c>
+      <c r="D11" s="12">
+        <f>D6-I4</f>
+        <v>74.5</v>
+      </c>
+      <c r="E11">
+        <f>E6-J4</f>
+        <v>-114.5</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B11:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <f>B7-G4</f>
+        <v>117.5</v>
+      </c>
+      <c r="C12">
+        <f>C7-H4</f>
+        <v>-81.5</v>
+      </c>
+      <c r="D12">
+        <f>D7-I4</f>
+        <v>117.5</v>
+      </c>
+      <c r="E12">
+        <f>E7-J4</f>
+        <v>-153.5</v>
+      </c>
+      <c r="F12">
+        <f>SUM(B12:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B4-G6</f>
+        <v>33.25</v>
+      </c>
+      <c r="C14" s="12">
+        <f>C4-H6</f>
+        <v>85.25</v>
+      </c>
+      <c r="D14">
+        <f>D4-I6</f>
+        <v>-11.75</v>
+      </c>
+      <c r="E14">
+        <f>E4-J6</f>
+        <v>-106.75</v>
+      </c>
+      <c r="F14">
+        <f>SUM(B14:E14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B5-G6</f>
+        <v>-87.75</v>
+      </c>
+      <c r="C15">
+        <f>C5-H6</f>
+        <v>-68.75</v>
+      </c>
+      <c r="D15">
+        <f>D5-I6</f>
+        <v>71.25</v>
+      </c>
+      <c r="E15" s="12">
+        <f>E5-J6</f>
+        <v>85.25</v>
+      </c>
+      <c r="F15">
+        <f>SUM(B15:E15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B6-G6</f>
+        <v>40.25</v>
+      </c>
+      <c r="C16">
+        <f>C6-H6</f>
+        <v>-21.75</v>
+      </c>
+      <c r="D16" s="12">
+        <f>D6-I6</f>
+        <v>85.25</v>
+      </c>
+      <c r="E16">
+        <f>E6-J6</f>
+        <v>-103.75</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B16:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <f>B7-G6</f>
+        <v>85.25</v>
+      </c>
+      <c r="C17">
+        <f>C7-H6</f>
+        <v>-70.75</v>
+      </c>
+      <c r="D17">
+        <f>D7-I6</f>
+        <v>128.25</v>
+      </c>
+      <c r="E17">
+        <f>E7-J6</f>
+        <v>-142.75</v>
+      </c>
+      <c r="F17">
+        <f>SUM(B17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/op.xlsx
+++ b/op.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvinerkar/Desktop/fair-rent-division/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3220B3AF-63AE-5346-9BF9-DD337FAEFA35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA71F2E-121F-C44F-8DC2-1752EBBA8571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Room 1</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>194 - 210.67</t>
+  </si>
+  <si>
+    <t>spliddit results</t>
+  </si>
+  <si>
+    <t>my prog results</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>R1</t>
   </si>
 </sst>
 </file>
@@ -567,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72871B11-6182-3F4C-B346-E5046090B4EE}">
   <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A19" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1056,15 +1068,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10F7E83-6F49-7646-8667-341F80E65655}">
-  <dimension ref="B4:J17"/>
+  <dimension ref="A3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
       <c r="B4">
         <v>241</v>
       </c>
@@ -1089,8 +1109,11 @@
       <c r="J4">
         <v>362.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>120</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>248</v>
       </c>
@@ -1129,8 +1152,11 @@
       <c r="J6">
         <v>351.75</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>293</v>
       </c>
@@ -1144,7 +1170,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B4-G4</f>
         <v>65.5</v>
@@ -1166,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>B5-G4</f>
         <v>-55.5</v>
@@ -1188,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>B6-G4</f>
         <v>72.5</v>
@@ -1210,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <f>B7-G4</f>
         <v>117.5</v>
@@ -1232,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>B4-G6</f>
         <v>33.25</v>
@@ -1254,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>B5-G6</f>
         <v>-87.75</v>
@@ -1276,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B6-G6</f>
         <v>40.25</v>

--- a/op.xlsx
+++ b/op.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvinerkar/Desktop/fair-rent-division/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA71F2E-121F-C44F-8DC2-1752EBBA8571}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03A0F3-516C-884D-934F-F5D27ABE702E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Room 1</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>R1</t>
+  </si>
+  <si>
+    <t>spliddit</t>
+  </si>
+  <si>
+    <t>mine</t>
   </si>
 </sst>
 </file>
@@ -1068,13 +1074,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10F7E83-6F49-7646-8667-341F80E65655}">
-  <dimension ref="A3:K17"/>
+  <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1324,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <f>B7-G6</f>
         <v>85.25</v>
@@ -1343,6 +1352,393 @@
       </c>
       <c r="F17">
         <f>SUM(B17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>217</v>
+      </c>
+      <c r="C29">
+        <v>186</v>
+      </c>
+      <c r="D29">
+        <v>221</v>
+      </c>
+      <c r="E29">
+        <v>197</v>
+      </c>
+      <c r="F29">
+        <v>179</v>
+      </c>
+      <c r="H29">
+        <v>205.4</v>
+      </c>
+      <c r="I29">
+        <v>186.4</v>
+      </c>
+      <c r="J29">
+        <v>207.4</v>
+      </c>
+      <c r="K29">
+        <v>185.4</v>
+      </c>
+      <c r="L29">
+        <v>215.4</v>
+      </c>
+      <c r="M29">
+        <f>SUM(H29:L29)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>187</v>
+      </c>
+      <c r="C30">
+        <v>239</v>
+      </c>
+      <c r="D30">
+        <v>137</v>
+      </c>
+      <c r="E30">
+        <v>238</v>
+      </c>
+      <c r="F30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>230</v>
+      </c>
+      <c r="C31">
+        <v>187</v>
+      </c>
+      <c r="D31">
+        <v>232</v>
+      </c>
+      <c r="E31">
+        <v>151</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>206</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>196</v>
+      </c>
+      <c r="E32">
+        <v>199</v>
+      </c>
+      <c r="F32">
+        <v>199</v>
+      </c>
+      <c r="H32">
+        <v>203</v>
+      </c>
+      <c r="I32">
+        <v>173</v>
+      </c>
+      <c r="J32">
+        <v>194</v>
+      </c>
+      <c r="K32">
+        <v>211</v>
+      </c>
+      <c r="L32">
+        <v>219</v>
+      </c>
+      <c r="M32">
+        <f>SUM(H32:L32)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>159</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33">
+        <v>199</v>
+      </c>
+      <c r="E33">
+        <v>216</v>
+      </c>
+      <c r="F33">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>B29-H29</f>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="C35">
+        <f>C29-I29</f>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="D35" s="12">
+        <f>D29-J29</f>
+        <v>13.599999999999994</v>
+      </c>
+      <c r="E35">
+        <f>E29-K29</f>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="F35">
+        <f>F29-L29</f>
+        <v>-36.400000000000006</v>
+      </c>
+      <c r="G35">
+        <f>SUM(B35:F35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>B30-H29</f>
+        <v>-18.400000000000006</v>
+      </c>
+      <c r="C36">
+        <f>C30-I29</f>
+        <v>52.599999999999994</v>
+      </c>
+      <c r="D36">
+        <f>D30-J29</f>
+        <v>-70.400000000000006</v>
+      </c>
+      <c r="E36" s="12">
+        <f>E30-K29</f>
+        <v>52.599999999999994</v>
+      </c>
+      <c r="F36">
+        <f>F30-L29</f>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
+        <f>B31-H29</f>
+        <v>24.599999999999994</v>
+      </c>
+      <c r="C37">
+        <f>C31-I29</f>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="D37">
+        <f>D31-J29</f>
+        <v>24.599999999999994</v>
+      </c>
+      <c r="E37">
+        <f>E31-K29</f>
+        <v>-34.400000000000006</v>
+      </c>
+      <c r="F37">
+        <f>F31-L29</f>
+        <v>-15.400000000000006</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>B32-H29</f>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="C38" s="12">
+        <f>C32-I29</f>
+        <v>13.599999999999994</v>
+      </c>
+      <c r="D38">
+        <f>D32-J29</f>
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="E38">
+        <f>E32-K29</f>
+        <v>13.599999999999994</v>
+      </c>
+      <c r="F38">
+        <f>F32-L29</f>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B33-H29</f>
+        <v>-46.400000000000006</v>
+      </c>
+      <c r="C39">
+        <f>C33-I29</f>
+        <v>-6.4000000000000057</v>
+      </c>
+      <c r="D39">
+        <f>D33-J29</f>
+        <v>-8.4000000000000057</v>
+      </c>
+      <c r="E39">
+        <f>E33-K29</f>
+        <v>30.599999999999994</v>
+      </c>
+      <c r="F39" s="12">
+        <f>F33-L29</f>
+        <v>30.599999999999994</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>B29-H32</f>
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <f>C29-I32</f>
+        <v>13</v>
+      </c>
+      <c r="D41" s="12">
+        <f>D29-J32</f>
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <f>E29-K32</f>
+        <v>-14</v>
+      </c>
+      <c r="F41">
+        <f>F29-L32</f>
+        <v>-40</v>
+      </c>
+      <c r="G41">
+        <f>SUM(B41:F41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>B30-H32</f>
+        <v>-16</v>
+      </c>
+      <c r="C42">
+        <f>C30-I32</f>
+        <v>66</v>
+      </c>
+      <c r="D42">
+        <f>D30-J32</f>
+        <v>-57</v>
+      </c>
+      <c r="E42" s="12">
+        <f>E30-K32</f>
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <f>F30-L32</f>
+        <v>-20</v>
+      </c>
+      <c r="G42">
+        <f>SUM(B42:F42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <f>B31-H32</f>
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <f>C31-I32</f>
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <f>D31-J32</f>
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <f>E31-K32</f>
+        <v>-60</v>
+      </c>
+      <c r="F43">
+        <f>F31-L32</f>
+        <v>-19</v>
+      </c>
+      <c r="G43">
+        <f>SUM(B43:F43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>B32-H32</f>
+        <v>3</v>
+      </c>
+      <c r="C44" s="12">
+        <f>C32-I32</f>
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <f>D32-J32</f>
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f>E32-K32</f>
+        <v>-12</v>
+      </c>
+      <c r="F44">
+        <f>F32-L32</f>
+        <v>-20</v>
+      </c>
+      <c r="G44">
+        <f>SUM(B44:F44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>B33-H32</f>
+        <v>-44</v>
+      </c>
+      <c r="C45">
+        <f>C33-I32</f>
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <f>D33-J32</f>
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <f>E33-K32</f>
+        <v>5</v>
+      </c>
+      <c r="F45" s="12">
+        <f>F33-L32</f>
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <f>SUM(B45:F45)</f>
         <v>0</v>
       </c>
     </row>

--- a/op.xlsx
+++ b/op.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvinerkar/Desktop/fair-rent-division/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03A0F3-516C-884D-934F-F5D27ABE702E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80069574-2F57-6544-BE21-3591FE88CE6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="1" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{997B0580-32E8-D046-9709-E4E60AF75209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Room 1</t>
   </si>
@@ -95,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -124,6 +125,12 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -232,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -269,6 +276,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72871B11-6182-3F4C-B346-E5046090B4EE}">
   <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A31" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1076,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10F7E83-6F49-7646-8667-341F80E65655}">
   <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1745,4 +1765,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEF8C11-BC1C-534C-A97A-61C05190A698}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15">
+        <v>330</v>
+      </c>
+      <c r="C2" s="15">
+        <v>470</v>
+      </c>
+      <c r="D2" s="15">
+        <v>200</v>
+      </c>
+      <c r="G2" s="14">
+        <v>276.67</v>
+      </c>
+      <c r="H2" s="14">
+        <v>396.67</v>
+      </c>
+      <c r="I2" s="14">
+        <v>326.67</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="16">
+        <v>350</v>
+      </c>
+      <c r="C3" s="16">
+        <v>450</v>
+      </c>
+      <c r="D3" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="17">
+        <v>225</v>
+      </c>
+      <c r="C4" s="17">
+        <v>375</v>
+      </c>
+      <c r="D4" s="17">
+        <v>400</v>
+      </c>
+      <c r="G4" s="14">
+        <v>207.75</v>
+      </c>
+      <c r="H4" s="14">
+        <v>196.75</v>
+      </c>
+      <c r="I4" s="14">
+        <v>243.75</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <f>B2-G2</f>
+        <v>53.329999999999984</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C2-H2</f>
+        <v>73.329999999999984</v>
+      </c>
+      <c r="D7" s="18">
+        <f>D2-I2</f>
+        <v>-126.67000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <f>B3-G2</f>
+        <v>73.329999999999984</v>
+      </c>
+      <c r="C8" s="18">
+        <f>C3-H2</f>
+        <v>53.329999999999984</v>
+      </c>
+      <c r="D8" s="18">
+        <f>D3-I2</f>
+        <v>-126.67000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <f>B4-G2</f>
+        <v>-51.670000000000016</v>
+      </c>
+      <c r="C9" s="18">
+        <f>C4-H2</f>
+        <v>-21.670000000000016</v>
+      </c>
+      <c r="D9" s="18">
+        <f>D4-I2</f>
+        <v>73.329999999999984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <f>B2-G4</f>
+        <v>122.25</v>
+      </c>
+      <c r="C12" s="14">
+        <f>C2-H4</f>
+        <v>273.25</v>
+      </c>
+      <c r="D12" s="14">
+        <f>D2-I4</f>
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <f>B3-G4</f>
+        <v>142.25</v>
+      </c>
+      <c r="C13" s="14">
+        <f>C3-H4</f>
+        <v>253.25</v>
+      </c>
+      <c r="D13" s="14">
+        <f>D3-I4</f>
+        <v>-43.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <f>B4-G4</f>
+        <v>17.25</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C4-H4</f>
+        <v>178.25</v>
+      </c>
+      <c r="D14" s="14">
+        <f>D4-I4</f>
+        <v>156.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>